--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem3/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem3/correct_predictions.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
+          <t>Compass Error Compass Error Compass disconnected .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass disconnected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +527,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compass disconnected</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass disconnected .</t>
+          <t>Critical low battery Aircraft in Auto Power Off Protection Forced landing in progress .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
